--- a/biology/Zoologie/Hespérie_de_Stauder/Hespérie_de_Stauder.xlsx
+++ b/biology/Zoologie/Hespérie_de_Stauder/Hespérie_de_Stauder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus stauderi, Muschampia stauderi
 L’Hespérie de Stauder (Carcharodus stauderi) est une espèce de papillons de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Carcharodus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Carcharodus stauderi  a été décrite en 1913 par le chirurgien et naturaliste suisse Jaques-Louis Reverdin (1842-1929)[3]. 
-Le National Center for Biotechnology Information classe désormais cette espèce sous le genre Muschampia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Carcharodus stauderi  a été décrite en 1913 par le chirurgien et naturaliste suisse Jaques-Louis Reverdin (1842-1929). 
+Le National Center for Biotechnology Information classe désormais cette espèce sous le genre Muschampia.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Hespérie de Stauder se nomme en anglais False Marbled Skipper et en turc Cezayir Zıpzıpı[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Hespérie de Stauder se nomme en anglais False Marbled Skipper et en turc Cezayir Zıpzıpı,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 août 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 août 2021) :
 sous-espèce Carcharodus stauderi ambigua Verity, 1925
 sous-espèce Carcharodus stauderi ramses Reverdin, 1913
 sous-espèce Carcharodus stauderi stauderi Reverdin, 1913</t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Hespérie de Stauder est un petit papillon qui présente un dessus marbré de marron, beige et gris et la marge des ailes est à damiers. Le revers est plus clair et les antérieures des mâles ont une touffe de poils[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Hespérie de Stauder est un petit papillon qui présente un dessus marbré de marron, beige et gris et la marge des ailes est à damiers. Le revers est plus clair et les antérieures des mâles ont une touffe de poils.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +661,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en plusieurs générations entre mars et octobre[6].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Marrubium vulgare, Ballota foetida, Nepeta floccosa et des Phlomis, Phlomis aurea et Phlomis floccusa[3],[6].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations entre mars et octobre.
 </t>
         </is>
       </c>
@@ -655,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Stauder</t>
+          <t>Hespérie_de_Stauder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,16 +693,125 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Marrubium vulgare, Ballota foetida, Nepeta floccosa et des Phlomis, Phlomis aurea et Phlomis floccusa,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans tout le nord de l'Afrique, en Afrique du Nord au Maroc, en Algérie, en Tunisie, en Libye, dans le Nord de l'Égypte, dans les îles Égéennes et au Moyen-Orient, en Turquie, Palestine, Iran et Afghanistan[3],[6].
-Biotope
-Il réside dans les lieux fleuris secs et chauds[6].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans tout le nord de l'Afrique, en Afrique du Nord au Maroc, en Algérie, en Tunisie, en Libye, dans le Nord de l'Égypte, dans les îles Égéennes et au Moyen-Orient, en Turquie, Palestine, Iran et Afghanistan,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux fleuris secs et chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
